--- a/Contract Details.xlsx
+++ b/Contract Details.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Contracts" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12050" uniqueCount="7442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12025" uniqueCount="7442">
   <si>
     <t>SL No</t>
   </si>
@@ -6088,7 +6088,7 @@
     <t>100499</t>
   </si>
   <si>
-    <t>100500</t>
+    <t>1005005</t>
   </si>
   <si>
     <t>100000</t>
@@ -22363,18 +22363,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD7E4BC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -22406,8 +22400,8 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -22705,36 +22699,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1"/>
-    <col min="9" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" customWidth="1"/>
-    <col min="14" max="14" width="37.7109375" customWidth="1"/>
-    <col min="15" max="17" width="8.7109375" customWidth="1"/>
-    <col min="18" max="18" width="31.7109375" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="29.7109375" customWidth="1"/>
-    <col min="21" max="21" width="40.7109375" customWidth="1"/>
-    <col min="22" max="22" width="19.7109375" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" customWidth="1"/>
-    <col min="24" max="24" width="22.7109375" customWidth="1"/>
-    <col min="25" max="25" width="61.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
